--- a/unmMapToDo.xlsx
+++ b/unmMapToDo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erikty\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erikty\Documents\GitHub\ToDo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Item</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Become familiar with github interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play with open street map (maperative) </t>
   </si>
 </sst>
 </file>
@@ -387,7 +396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -424,6 +433,23 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" t="s">

--- a/unmMapToDo.xlsx
+++ b/unmMapToDo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t xml:space="preserve">Play with open street map (maperative) </t>
+  </si>
+  <si>
+    <t>Ben and Erik</t>
+  </si>
+  <si>
+    <t>Create something using android studios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn more about JSON </t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>look into boundaries for the map using osm</t>
   </si>
 </sst>
 </file>
@@ -396,14 +411,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5.578125" customWidth="1"/>
     <col min="2" max="2" width="11.68359375" customWidth="1"/>
-    <col min="3" max="4" width="31.05078125" customWidth="1"/>
+    <col min="3" max="3" width="34.5234375" customWidth="1"/>
+    <col min="4" max="4" width="31.05078125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -451,7 +467,38 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
